--- a/data/pca/factorExposure/factorExposure_2011-03-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-03-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +738,54 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.009721180014678032</v>
+        <v>-0.01308295987418935</v>
       </c>
       <c r="C2">
-        <v>-0.001264785810662006</v>
+        <v>-0.006249059177258066</v>
       </c>
       <c r="D2">
-        <v>-0.03445087250798915</v>
+        <v>-0.008231953671376241</v>
       </c>
       <c r="E2">
-        <v>0.004934322884814475</v>
+        <v>0.001861859602787687</v>
       </c>
       <c r="F2">
-        <v>-0.001916553621834991</v>
+        <v>-0.02716069631885812</v>
       </c>
       <c r="G2">
-        <v>-0.01607648041058149</v>
+        <v>0.001931797462572543</v>
       </c>
       <c r="H2">
-        <v>0.04250066234510557</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.006142707263394158</v>
+      </c>
+      <c r="I2">
+        <v>0.01510177055472022</v>
+      </c>
+      <c r="J2">
+        <v>0.002901910074860798</v>
+      </c>
+      <c r="K2">
+        <v>0.07627638451101458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +808,54 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1058710817081697</v>
+        <v>-0.1193275631526468</v>
       </c>
       <c r="C4">
-        <v>0.02297295827371436</v>
+        <v>-0.05450688376413673</v>
       </c>
       <c r="D4">
-        <v>-0.05690208624887436</v>
+        <v>-0.0006520517884954342</v>
       </c>
       <c r="E4">
-        <v>0.05827491134459038</v>
+        <v>0.003488741889294728</v>
       </c>
       <c r="F4">
-        <v>0.0399680702889911</v>
+        <v>-0.02032640824856935</v>
       </c>
       <c r="G4">
-        <v>-0.02281393128353324</v>
+        <v>0.07035657580814449</v>
       </c>
       <c r="H4">
-        <v>-0.02463519889729381</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.0650416002060879</v>
+      </c>
+      <c r="I4">
+        <v>0.1391005299546376</v>
+      </c>
+      <c r="J4">
+        <v>0.02301298970753397</v>
+      </c>
+      <c r="K4">
+        <v>-0.02131050958444623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +878,404 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.1299574842690191</v>
+        <v>-0.1254696327384152</v>
       </c>
       <c r="C6">
-        <v>0.02398093532337766</v>
+        <v>-0.005096656428126856</v>
       </c>
       <c r="D6">
-        <v>-0.006307602075549759</v>
+        <v>-0.009624150361714216</v>
       </c>
       <c r="E6">
-        <v>0.007008396935377068</v>
+        <v>0.02865919224380376</v>
       </c>
       <c r="F6">
-        <v>-0.1772125376314426</v>
+        <v>0.02614366875196816</v>
       </c>
       <c r="G6">
-        <v>0.1180298548308165</v>
+        <v>-0.05284192552560644</v>
       </c>
       <c r="H6">
-        <v>-0.2915120669681955</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.03954593145419621</v>
+      </c>
+      <c r="I6">
+        <v>0.04354807481126983</v>
+      </c>
+      <c r="J6">
+        <v>-0.1883858350480317</v>
+      </c>
+      <c r="K6">
+        <v>-0.324916780633993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.08900363379838432</v>
+        <v>-0.07985911128529194</v>
       </c>
       <c r="C7">
-        <v>0.03715300039847909</v>
+        <v>-0.05703685302494538</v>
       </c>
       <c r="D7">
-        <v>-0.05690235300251658</v>
+        <v>-0.0229868288802567</v>
       </c>
       <c r="E7">
-        <v>0.01750149059336083</v>
+        <v>0.0112728732391838</v>
       </c>
       <c r="F7">
-        <v>-0.01645778995046283</v>
+        <v>-0.04772408377477417</v>
       </c>
       <c r="G7">
-        <v>-0.004534495315904176</v>
+        <v>0.01063122774694872</v>
       </c>
       <c r="H7">
-        <v>-0.002482904026411468</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.02794993485456464</v>
+      </c>
+      <c r="I7">
+        <v>0.02503361782684191</v>
+      </c>
+      <c r="J7">
+        <v>0.02744489164259266</v>
+      </c>
+      <c r="K7">
+        <v>0.01335096648278094</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.04160652882002545</v>
+        <v>-0.05316903170171684</v>
       </c>
       <c r="C8">
-        <v>-0.03281886265799375</v>
+        <v>-0.01495227526587316</v>
       </c>
       <c r="D8">
-        <v>-0.08239488102035056</v>
+        <v>-0.01543780762928182</v>
       </c>
       <c r="E8">
-        <v>0.08914508114097386</v>
+        <v>-0.00210764942486126</v>
       </c>
       <c r="F8">
-        <v>0.007944844598972923</v>
+        <v>-0.006479981078449631</v>
       </c>
       <c r="G8">
-        <v>-0.1444555225251555</v>
+        <v>0.08608164075166155</v>
       </c>
       <c r="H8">
-        <v>-0.05569434139482129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.06855927223965282</v>
+      </c>
+      <c r="I8">
+        <v>0.1029137621585891</v>
+      </c>
+      <c r="J8">
+        <v>-0.01801178900553852</v>
+      </c>
+      <c r="K8">
+        <v>-0.01576096656837024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.09277068646708987</v>
+        <v>-0.08997397092772964</v>
       </c>
       <c r="C9">
-        <v>0.03974007525563768</v>
+        <v>-0.05100288876351565</v>
       </c>
       <c r="D9">
-        <v>-0.05032464402855796</v>
+        <v>-0.01031904373982188</v>
       </c>
       <c r="E9">
-        <v>0.04669784224571988</v>
+        <v>-0.002174446590992282</v>
       </c>
       <c r="F9">
-        <v>0.01920165513871088</v>
+        <v>-0.02809775449890213</v>
       </c>
       <c r="G9">
-        <v>-0.06863939153786373</v>
+        <v>0.05991361221883292</v>
       </c>
       <c r="H9">
-        <v>-0.04125129344799262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.09566439517891215</v>
+      </c>
+      <c r="I9">
+        <v>0.06992703508551301</v>
+      </c>
+      <c r="J9">
+        <v>0.0157458237002042</v>
+      </c>
+      <c r="K9">
+        <v>-0.01227108359417473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.03839929179496276</v>
+        <v>-0.08438127204056416</v>
       </c>
       <c r="C10">
-        <v>-0.1711393084493754</v>
+        <v>0.1810547545875796</v>
       </c>
       <c r="D10">
-        <v>-0.08061560309037805</v>
+        <v>0.01976324436694844</v>
       </c>
       <c r="E10">
-        <v>0.01834598025896636</v>
+        <v>0.00623634020454661</v>
       </c>
       <c r="F10">
-        <v>-0.03107216717007309</v>
+        <v>-0.06040389622163621</v>
       </c>
       <c r="G10">
-        <v>0.006699982432758097</v>
+        <v>0.008435206480503778</v>
       </c>
       <c r="H10">
-        <v>-0.03173144347186798</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.0004480733776895684</v>
+      </c>
+      <c r="I10">
+        <v>-0.003837624588584479</v>
+      </c>
+      <c r="J10">
+        <v>0.01295989614228325</v>
+      </c>
+      <c r="K10">
+        <v>-0.0430327806583778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.07646293025961697</v>
+        <v>-0.08157254421248841</v>
       </c>
       <c r="C11">
-        <v>0.06162490286620364</v>
+        <v>-0.05809044231782715</v>
       </c>
       <c r="D11">
-        <v>-0.02800782796677839</v>
+        <v>-0.01697661744600588</v>
       </c>
       <c r="E11">
-        <v>-0.01511247055485352</v>
+        <v>-0.02517474878125474</v>
       </c>
       <c r="F11">
-        <v>0.002994618795265381</v>
+        <v>-0.004415113865063678</v>
       </c>
       <c r="G11">
-        <v>-0.1598433054150717</v>
+        <v>0.05511057844206018</v>
       </c>
       <c r="H11">
-        <v>0.05859452243131003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.1129519105073414</v>
+      </c>
+      <c r="I11">
+        <v>0.02784536204292182</v>
+      </c>
+      <c r="J11">
+        <v>0.00879732283806027</v>
+      </c>
+      <c r="K11">
+        <v>0.08563217474172831</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.07280302193456803</v>
+        <v>-0.08339937870892951</v>
       </c>
       <c r="C12">
-        <v>0.04213801860666375</v>
+        <v>-0.06668607144253963</v>
       </c>
       <c r="D12">
-        <v>-0.02421695221459206</v>
+        <v>-0.02826787622564967</v>
       </c>
       <c r="E12">
-        <v>0.02529894652493496</v>
+        <v>-0.04904239289114714</v>
       </c>
       <c r="F12">
-        <v>-0.01039905608766786</v>
+        <v>-0.01736753727056759</v>
       </c>
       <c r="G12">
-        <v>-0.1432223783995879</v>
+        <v>0.06893183131572898</v>
       </c>
       <c r="H12">
-        <v>0.0287432716512911</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.1014349737238321</v>
+      </c>
+      <c r="I12">
+        <v>0.02193620937397607</v>
+      </c>
+      <c r="J12">
+        <v>-0.01528569497341689</v>
+      </c>
+      <c r="K12">
+        <v>0.07870415637383323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.06274009576756745</v>
+        <v>-0.04287878810253062</v>
       </c>
       <c r="C13">
-        <v>0.007983078080356983</v>
+        <v>-0.02305608578295954</v>
       </c>
       <c r="D13">
-        <v>-0.02144480203620755</v>
+        <v>-0.01815372087389015</v>
       </c>
       <c r="E13">
-        <v>0.02128834440644218</v>
+        <v>0.02289331957480773</v>
       </c>
       <c r="F13">
-        <v>0.05387774214511647</v>
+        <v>-0.02188015715170879</v>
       </c>
       <c r="G13">
-        <v>-0.05359564697505389</v>
+        <v>0.04784140403004564</v>
       </c>
       <c r="H13">
-        <v>0.001179207285450054</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.05644639904078028</v>
+      </c>
+      <c r="I13">
+        <v>0.02657764284226942</v>
+      </c>
+      <c r="J13">
+        <v>-0.01503510828785313</v>
+      </c>
+      <c r="K13">
+        <v>-0.05704019395388296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.05169334871325859</v>
+        <v>-0.03669201586159617</v>
       </c>
       <c r="C14">
-        <v>0.007638257834532319</v>
+        <v>-0.007861171114841616</v>
       </c>
       <c r="D14">
-        <v>-0.06607718055680017</v>
+        <v>0.01115928553660814</v>
       </c>
       <c r="E14">
-        <v>0.02283641024119631</v>
+        <v>-0.01152158389378226</v>
       </c>
       <c r="F14">
-        <v>0.02293418311915763</v>
+        <v>-0.01082310231378496</v>
       </c>
       <c r="G14">
-        <v>-0.0428102813504502</v>
+        <v>0.04531191062812129</v>
       </c>
       <c r="H14">
-        <v>-0.1433939715832052</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.04968242588238728</v>
+      </c>
+      <c r="I14">
+        <v>0.04490932318139976</v>
+      </c>
+      <c r="J14">
+        <v>0.07033233298943667</v>
+      </c>
+      <c r="K14">
+        <v>-0.08846638704998727</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.0346982512718061</v>
+        <v>-0.02297043173763662</v>
       </c>
       <c r="C15">
-        <v>-0.0090288648112909</v>
+        <v>-0.002559972571906959</v>
       </c>
       <c r="D15">
-        <v>-0.02283893780490367</v>
+        <v>-0.00909149436427171</v>
       </c>
       <c r="E15">
-        <v>0.004849777165813496</v>
+        <v>0.03785651459713623</v>
       </c>
       <c r="F15">
-        <v>0.004719777629845267</v>
+        <v>-0.01951459029945599</v>
       </c>
       <c r="G15">
-        <v>-0.01596420712971579</v>
+        <v>0.01283611854457449</v>
       </c>
       <c r="H15">
-        <v>-0.05878836551387776</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.02073778332236348</v>
+      </c>
+      <c r="I15">
+        <v>0.001513336092608679</v>
+      </c>
+      <c r="J15">
+        <v>0.0146163016406352</v>
+      </c>
+      <c r="K15">
+        <v>-0.06000946727249304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.0804119641921812</v>
+        <v>-0.08948447365756676</v>
       </c>
       <c r="C16">
-        <v>0.07007803866621468</v>
+        <v>-0.06796701698621059</v>
       </c>
       <c r="D16">
-        <v>-0.03607098098674075</v>
+        <v>-0.02312892066868953</v>
       </c>
       <c r="E16">
-        <v>0.02527353622506352</v>
+        <v>-0.02797677622958376</v>
       </c>
       <c r="F16">
-        <v>0.04402868747203518</v>
+        <v>-0.01078091894346339</v>
       </c>
       <c r="G16">
-        <v>-0.1165940765804523</v>
+        <v>0.07996585100444131</v>
       </c>
       <c r="H16">
-        <v>0.05666252152086386</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.1131926335475582</v>
+      </c>
+      <c r="I16">
+        <v>-0.00531282289560653</v>
+      </c>
+      <c r="J16">
+        <v>0.02025098070564827</v>
+      </c>
+      <c r="K16">
+        <v>0.0977416619511608</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1298,19 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1333,19 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1368,264 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.05284675262936374</v>
+        <v>-0.05125256818043896</v>
       </c>
       <c r="C20">
-        <v>0.02154272419267728</v>
+        <v>-0.03280966753569789</v>
       </c>
       <c r="D20">
-        <v>-0.03863500146545048</v>
+        <v>0.01366493486092536</v>
       </c>
       <c r="E20">
-        <v>0.01365700538609196</v>
+        <v>0.01553736289373834</v>
       </c>
       <c r="F20">
-        <v>0.006459243740906575</v>
+        <v>-0.02282343055499635</v>
       </c>
       <c r="G20">
-        <v>-0.102617564098403</v>
+        <v>0.03540726127306726</v>
       </c>
       <c r="H20">
-        <v>0.003018024392781592</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.06145209590975841</v>
+      </c>
+      <c r="I20">
+        <v>0.01461981409357433</v>
+      </c>
+      <c r="J20">
+        <v>0.03076272268162297</v>
+      </c>
+      <c r="K20">
+        <v>-0.03112684824816424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.02576910507419638</v>
+        <v>-0.02915257682781822</v>
       </c>
       <c r="C21">
-        <v>0.04170607753002266</v>
+        <v>-0.01114771695831009</v>
       </c>
       <c r="D21">
-        <v>-0.0124062861697607</v>
+        <v>0.03564445445270068</v>
       </c>
       <c r="E21">
-        <v>0.01594260035756928</v>
+        <v>0.004111030744793269</v>
       </c>
       <c r="F21">
-        <v>-0.07380757492689613</v>
+        <v>0.01097457593507163</v>
       </c>
       <c r="G21">
-        <v>0.1010154196509918</v>
+        <v>0.03356290779386424</v>
       </c>
       <c r="H21">
-        <v>-0.09214980075310238</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.0258846682660155</v>
+      </c>
+      <c r="I21">
+        <v>0.07965177365500409</v>
+      </c>
+      <c r="J21">
+        <v>-0.02153715784273198</v>
+      </c>
+      <c r="K21">
+        <v>-0.03238488415469264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.04358147679040611</v>
+        <v>-0.03600502270893979</v>
       </c>
       <c r="C22">
-        <v>0.01978607223225596</v>
+        <v>0.005327969572277969</v>
       </c>
       <c r="D22">
-        <v>0.01164227436117074</v>
+        <v>-0.07857595033788342</v>
       </c>
       <c r="E22">
-        <v>0.5579110273622868</v>
+        <v>0.6244653295994959</v>
       </c>
       <c r="F22">
-        <v>0.1341725610117903</v>
+        <v>-0.144538300421525</v>
       </c>
       <c r="G22">
-        <v>0.3158961742633978</v>
+        <v>0.1380039918586618</v>
       </c>
       <c r="H22">
-        <v>0.106695122247542</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.1053429257972115</v>
+      </c>
+      <c r="I22">
+        <v>-0.1047579303867982</v>
+      </c>
+      <c r="J22">
+        <v>-0.02773398862763567</v>
+      </c>
+      <c r="K22">
+        <v>0.07164697676776997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.04373056840473006</v>
+        <v>-0.03621263915587934</v>
       </c>
       <c r="C23">
-        <v>0.02019224686957223</v>
+        <v>0.004915573317857715</v>
       </c>
       <c r="D23">
-        <v>0.01004170313996814</v>
+        <v>-0.07971158288445476</v>
       </c>
       <c r="E23">
-        <v>0.5568309569577345</v>
+        <v>0.6267038349655455</v>
       </c>
       <c r="F23">
-        <v>0.1346899379250817</v>
+        <v>-0.1447986885601923</v>
       </c>
       <c r="G23">
-        <v>0.316636773573155</v>
+        <v>0.1389327049114169</v>
       </c>
       <c r="H23">
-        <v>0.1060283832143141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.101790752963469</v>
+      </c>
+      <c r="I23">
+        <v>-0.1033824374369438</v>
+      </c>
+      <c r="J23">
+        <v>-0.02647774181362218</v>
+      </c>
+      <c r="K23">
+        <v>0.06963660113433114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.08437693629898169</v>
+        <v>-0.09021388792624181</v>
       </c>
       <c r="C24">
-        <v>0.05047445846445125</v>
+        <v>-0.0594938293963212</v>
       </c>
       <c r="D24">
-        <v>-0.04144508421984577</v>
+        <v>-0.00873394883322705</v>
       </c>
       <c r="E24">
-        <v>0.02617578409726673</v>
+        <v>-0.0227935850255042</v>
       </c>
       <c r="F24">
-        <v>0.0009230383232679329</v>
+        <v>-0.01673121486384473</v>
       </c>
       <c r="G24">
-        <v>-0.1214240563281783</v>
+        <v>0.06444899693606429</v>
       </c>
       <c r="H24">
-        <v>0.02767950299462188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.1169428939928874</v>
+      </c>
+      <c r="I24">
+        <v>-0.01129972499784872</v>
+      </c>
+      <c r="J24">
+        <v>0.00543050831206656</v>
+      </c>
+      <c r="K24">
+        <v>0.09346656995726307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.0764156580539459</v>
+        <v>-0.09118128548030584</v>
       </c>
       <c r="C25">
-        <v>0.02330578374130811</v>
+        <v>-0.0420810850422827</v>
       </c>
       <c r="D25">
-        <v>-0.0382557883116865</v>
+        <v>-0.02000523320595608</v>
       </c>
       <c r="E25">
-        <v>0.02304699387481502</v>
+        <v>-0.05455962959774996</v>
       </c>
       <c r="F25">
-        <v>-0.007608566963747938</v>
+        <v>-0.01806715103317434</v>
       </c>
       <c r="G25">
-        <v>-0.1147688761083768</v>
+        <v>0.07733910534321671</v>
       </c>
       <c r="H25">
-        <v>0.02132168282568505</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.08121944933573838</v>
+      </c>
+      <c r="I25">
+        <v>0.02051531337028678</v>
+      </c>
+      <c r="J25">
+        <v>0.01899043452031253</v>
+      </c>
+      <c r="K25">
+        <v>0.07247697932509972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.05130771716263576</v>
+        <v>-0.04052970243178457</v>
       </c>
       <c r="C26">
-        <v>0.02418675509078272</v>
+        <v>0.00875885808827916</v>
       </c>
       <c r="D26">
-        <v>-0.04063810954547981</v>
+        <v>0.01567565061307964</v>
       </c>
       <c r="E26">
-        <v>0.006204249084586831</v>
+        <v>0.01685079836649504</v>
       </c>
       <c r="F26">
-        <v>0.02208792307680689</v>
+        <v>0.0131501368136368</v>
       </c>
       <c r="G26">
-        <v>-0.06317560842362323</v>
+        <v>0.03988380330279177</v>
       </c>
       <c r="H26">
-        <v>-0.06859041931767006</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.0571544772013961</v>
+      </c>
+      <c r="I26">
+        <v>0.004445562316836365</v>
+      </c>
+      <c r="J26">
+        <v>0.04690892954923982</v>
+      </c>
+      <c r="K26">
+        <v>-0.06950308737851119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1648,334 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.06161098097091328</v>
+        <v>-0.09244169326861348</v>
       </c>
       <c r="C28">
-        <v>-0.3044600092683837</v>
+        <v>0.3203371578767117</v>
       </c>
       <c r="D28">
-        <v>-0.0235505675088996</v>
+        <v>-0.01913954524826163</v>
       </c>
       <c r="E28">
-        <v>-0.01694025246797071</v>
+        <v>-0.02126215797953978</v>
       </c>
       <c r="F28">
-        <v>-0.0521470291288667</v>
+        <v>-0.005285795628833642</v>
       </c>
       <c r="G28">
-        <v>0.02159053009245526</v>
+        <v>0.02582524409642159</v>
       </c>
       <c r="H28">
-        <v>0.06341492920774228</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.01350673141046233</v>
+      </c>
+      <c r="I28">
+        <v>0.01262795574045487</v>
+      </c>
+      <c r="J28">
+        <v>-0.02722118384093422</v>
+      </c>
+      <c r="K28">
+        <v>0.004805528785642246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.05889565066309202</v>
+        <v>-0.03775125306408181</v>
       </c>
       <c r="C29">
-        <v>0.003435227163797564</v>
+        <v>-0.006696133020634503</v>
       </c>
       <c r="D29">
-        <v>-0.03532099490067049</v>
+        <v>-0.001816414528576682</v>
       </c>
       <c r="E29">
-        <v>0.0410596345091091</v>
+        <v>-0.01451540012668163</v>
       </c>
       <c r="F29">
-        <v>0.03136875618637266</v>
+        <v>-0.02646649216145206</v>
       </c>
       <c r="G29">
-        <v>-0.0405653333383862</v>
+        <v>0.0801578650225007</v>
       </c>
       <c r="H29">
-        <v>-0.08747124990770482</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.05349629163844435</v>
+      </c>
+      <c r="I29">
+        <v>0.01526920632286271</v>
+      </c>
+      <c r="J29">
+        <v>0.0582305321494978</v>
+      </c>
+      <c r="K29">
+        <v>-0.07922368961388375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.1142430434829242</v>
+        <v>-0.110010771069137</v>
       </c>
       <c r="C30">
-        <v>-0.02431170051701941</v>
+        <v>-0.07251638810960911</v>
       </c>
       <c r="D30">
-        <v>-0.07902510705711885</v>
+        <v>-0.05017541283678177</v>
       </c>
       <c r="E30">
-        <v>0.2132668573571045</v>
+        <v>-0.008789498466698263</v>
       </c>
       <c r="F30">
-        <v>-0.08729804631427275</v>
+        <v>0.01462157311149343</v>
       </c>
       <c r="G30">
-        <v>-0.1583034037827567</v>
+        <v>0.175226470534432</v>
       </c>
       <c r="H30">
-        <v>0.03388201956150707</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.1308916691817555</v>
+      </c>
+      <c r="I30">
+        <v>0.04705072615756471</v>
+      </c>
+      <c r="J30">
+        <v>-0.2711937550495682</v>
+      </c>
+      <c r="K30">
+        <v>0.08005703170632976</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.05676023613857194</v>
+        <v>-0.03815463230345076</v>
       </c>
       <c r="C31">
-        <v>0.02102505279155919</v>
+        <v>-0.0251969323169409</v>
       </c>
       <c r="D31">
-        <v>0.00441344643295872</v>
+        <v>-0.004596733490293416</v>
       </c>
       <c r="E31">
-        <v>0.006903678708297812</v>
+        <v>0.00737198072076605</v>
       </c>
       <c r="F31">
-        <v>0.04149907542242958</v>
+        <v>-0.004128853861106503</v>
       </c>
       <c r="G31">
-        <v>-0.006310389207170411</v>
+        <v>0.01394709906389458</v>
       </c>
       <c r="H31">
-        <v>-0.02180048571533727</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.05010637249551515</v>
+      </c>
+      <c r="I31">
+        <v>-0.01356199787650006</v>
+      </c>
+      <c r="J31">
+        <v>0.06696196433323708</v>
+      </c>
+      <c r="K31">
+        <v>-0.04847707725483254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.0355452991970388</v>
+        <v>-0.05534478475113713</v>
       </c>
       <c r="C32">
-        <v>-0.01447046568331515</v>
+        <v>-0.006082332893270414</v>
       </c>
       <c r="D32">
-        <v>-0.01644221696245099</v>
+        <v>0.01391765882803538</v>
       </c>
       <c r="E32">
-        <v>0.09248130391869576</v>
+        <v>-0.035237401730932</v>
       </c>
       <c r="F32">
-        <v>0.1304427157814631</v>
+        <v>0.04464897774038241</v>
       </c>
       <c r="G32">
-        <v>-0.03467148541633499</v>
+        <v>0.02560443134219177</v>
       </c>
       <c r="H32">
-        <v>-0.009997281182758694</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.03234921355240537</v>
+      </c>
+      <c r="I32">
+        <v>0.02430933032672926</v>
+      </c>
+      <c r="J32">
+        <v>-0.01026944889272901</v>
+      </c>
+      <c r="K32">
+        <v>0.007796128721380945</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.1108759462620869</v>
+        <v>-0.1026716759318396</v>
       </c>
       <c r="C33">
-        <v>0.01689932768678857</v>
+        <v>-0.04900512139221284</v>
       </c>
       <c r="D33">
-        <v>0.003790619949927019</v>
+        <v>-0.06703688103646234</v>
       </c>
       <c r="E33">
-        <v>0.01284076333559188</v>
+        <v>-0.02237680808131048</v>
       </c>
       <c r="F33">
-        <v>0.03004495478700573</v>
+        <v>-0.008437573400963416</v>
       </c>
       <c r="G33">
-        <v>-0.0720397075416199</v>
+        <v>0.02622514242167134</v>
       </c>
       <c r="H33">
-        <v>-0.06069182839065734</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.06255432735009833</v>
+      </c>
+      <c r="I33">
+        <v>0.009390058382186831</v>
+      </c>
+      <c r="J33">
+        <v>0.02665489505821853</v>
+      </c>
+      <c r="K33">
+        <v>1.038956736066842e-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.06669818989907965</v>
+        <v>-0.07544775171122699</v>
       </c>
       <c r="C34">
-        <v>0.04476868088059512</v>
+        <v>-0.05077954177550587</v>
       </c>
       <c r="D34">
-        <v>-0.02030424788254759</v>
+        <v>-0.01821360623492967</v>
       </c>
       <c r="E34">
-        <v>0.008369721122038765</v>
+        <v>-0.02538235218096288</v>
       </c>
       <c r="F34">
-        <v>0.02828055621660999</v>
+        <v>-0.01031439012415447</v>
       </c>
       <c r="G34">
-        <v>-0.09350460991329101</v>
+        <v>0.07268319643736243</v>
       </c>
       <c r="H34">
-        <v>0.02006177848814887</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.1113341914956072</v>
+      </c>
+      <c r="I34">
+        <v>0.009328768053295414</v>
+      </c>
+      <c r="J34">
+        <v>0.02334070955527862</v>
+      </c>
+      <c r="K34">
+        <v>0.06569716335906724</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.04362724156747708</v>
+        <v>-0.02126902033967899</v>
       </c>
       <c r="C35">
-        <v>0.009674674312656362</v>
+        <v>-0.0126639947230345</v>
       </c>
       <c r="D35">
-        <v>0.007654057984649048</v>
+        <v>-0.006542867472797644</v>
       </c>
       <c r="E35">
-        <v>0.006760166646831714</v>
+        <v>-0.005795448848432935</v>
       </c>
       <c r="F35">
-        <v>-0.04320207104997496</v>
+        <v>-0.008548018963930008</v>
       </c>
       <c r="G35">
-        <v>-0.04229487841323153</v>
+        <v>0.05439126244942537</v>
       </c>
       <c r="H35">
-        <v>0.01604538867051307</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.01627873562520061</v>
+      </c>
+      <c r="I35">
+        <v>0.02073991414773075</v>
+      </c>
+      <c r="J35">
+        <v>0.03020847773788824</v>
+      </c>
+      <c r="K35">
+        <v>-0.01309077142140258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.03822116417142605</v>
+        <v>-0.03151384591743217</v>
       </c>
       <c r="C36">
-        <v>0.002888230639180981</v>
+        <v>-0.006295748278104619</v>
       </c>
       <c r="D36">
-        <v>-0.02085691204623765</v>
+        <v>-0.0024701731849424</v>
       </c>
       <c r="E36">
-        <v>0.03946849299795446</v>
+        <v>0.0102969275520876</v>
       </c>
       <c r="F36">
-        <v>0.0025768050373919</v>
+        <v>0.007173177599666958</v>
       </c>
       <c r="G36">
-        <v>-0.05643074206280509</v>
+        <v>0.03859766086659703</v>
       </c>
       <c r="H36">
-        <v>-0.04667107875518919</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.04744653177549204</v>
+      </c>
+      <c r="I36">
+        <v>0.0227211227347254</v>
+      </c>
+      <c r="J36">
+        <v>0.02080747866396015</v>
+      </c>
+      <c r="K36">
+        <v>-0.01946144725503509</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +1998,159 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.05682751151121997</v>
+        <v>-0.02116432086939832</v>
       </c>
       <c r="C38">
-        <v>0.01503578794096489</v>
+        <v>-0.01540506164055082</v>
       </c>
       <c r="D38">
-        <v>-0.003300360213423374</v>
+        <v>-0.01050709411074345</v>
       </c>
       <c r="E38">
-        <v>0.002989767417086921</v>
+        <v>0.01847803904543469</v>
       </c>
       <c r="F38">
-        <v>0.02454649287819988</v>
+        <v>-0.01334831050106478</v>
       </c>
       <c r="G38">
-        <v>-0.06087999162697538</v>
+        <v>-0.01215508064923571</v>
       </c>
       <c r="H38">
-        <v>0.0107033471738482</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.0269724103819458</v>
+      </c>
+      <c r="I38">
+        <v>-0.02936669618993552</v>
+      </c>
+      <c r="J38">
+        <v>0.002961719171477111</v>
+      </c>
+      <c r="K38">
+        <v>-0.06413134964178618</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.1075686989235219</v>
+        <v>-0.1267436954316714</v>
       </c>
       <c r="C39">
-        <v>0.0417131668562552</v>
+        <v>-0.08573191263653733</v>
       </c>
       <c r="D39">
-        <v>-0.02658651078205861</v>
+        <v>-0.04204255192014476</v>
       </c>
       <c r="E39">
-        <v>0.06893969272650596</v>
+        <v>-0.1046620603923857</v>
       </c>
       <c r="F39">
-        <v>0.004025981096214936</v>
+        <v>-0.008976086287826673</v>
       </c>
       <c r="G39">
-        <v>-0.1444279542821029</v>
+        <v>0.1090385035973467</v>
       </c>
       <c r="H39">
-        <v>0.1134807581960828</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.08423422808092294</v>
+      </c>
+      <c r="I39">
+        <v>-0.007976399086458374</v>
+      </c>
+      <c r="J39">
+        <v>0.006854122579874756</v>
+      </c>
+      <c r="K39">
+        <v>0.17405420967829</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.05095887097556633</v>
+        <v>-0.01801972543647237</v>
       </c>
       <c r="C40">
-        <v>0.02468622465034143</v>
+        <v>-0.02944011528953458</v>
       </c>
       <c r="D40">
-        <v>0.008917188359156924</v>
+        <v>0.008705405638195508</v>
       </c>
       <c r="E40">
-        <v>0.1024067016397237</v>
+        <v>0.06630237827965985</v>
       </c>
       <c r="F40">
-        <v>-0.04123539860466155</v>
+        <v>-0.01672520387620455</v>
       </c>
       <c r="G40">
-        <v>-0.2730927091971703</v>
+        <v>0.06652389936684167</v>
       </c>
       <c r="H40">
-        <v>0.07638720376286326</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.05137737510780237</v>
+      </c>
+      <c r="I40">
+        <v>0.08857445051076147</v>
+      </c>
+      <c r="J40">
+        <v>-0.06019931607431209</v>
+      </c>
+      <c r="K40">
+        <v>-0.05560065511544061</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.04745774877633373</v>
+        <v>-0.0299861353369589</v>
       </c>
       <c r="C41">
-        <v>0.0299978988636273</v>
+        <v>-0.01012239054769269</v>
       </c>
       <c r="D41">
-        <v>-0.009897055869163564</v>
+        <v>0.009307909489790113</v>
       </c>
       <c r="E41">
-        <v>-0.01885119329948405</v>
+        <v>-0.008696118382524244</v>
       </c>
       <c r="F41">
-        <v>0.03006757266697066</v>
+        <v>-0.01171228828380704</v>
       </c>
       <c r="G41">
-        <v>-0.05942203719367962</v>
+        <v>0.009542410142167614</v>
       </c>
       <c r="H41">
-        <v>0.02764037307688981</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.03232172131124425</v>
+      </c>
+      <c r="I41">
+        <v>-0.007462524563641331</v>
+      </c>
+      <c r="J41">
+        <v>0.03639919579586003</v>
+      </c>
+      <c r="K41">
+        <v>-0.05020192515206078</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2173,89 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.07410771135959818</v>
+        <v>-0.046592968038941</v>
       </c>
       <c r="C43">
-        <v>0.02803778452497286</v>
+        <v>-0.01343591276281501</v>
       </c>
       <c r="D43">
-        <v>-0.02297498053632954</v>
+        <v>-0.01461305731884204</v>
       </c>
       <c r="E43">
-        <v>0.0196251779698417</v>
+        <v>0.006667663639883944</v>
       </c>
       <c r="F43">
-        <v>0.02750590255064611</v>
+        <v>-0.0107963500677653</v>
       </c>
       <c r="G43">
-        <v>-0.00339174506293735</v>
+        <v>0.03260276538883408</v>
       </c>
       <c r="H43">
-        <v>0.0203909126897072</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.0200378364308232</v>
+      </c>
+      <c r="I43">
+        <v>-0.01552852033027568</v>
+      </c>
+      <c r="J43">
+        <v>0.04749107781957801</v>
+      </c>
+      <c r="K43">
+        <v>-0.0509906315216227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.07762153724598955</v>
+        <v>-0.1184656909813152</v>
       </c>
       <c r="C44">
-        <v>0.01153509677417064</v>
+        <v>-0.09633981183284804</v>
       </c>
       <c r="D44">
-        <v>-0.1120225695284727</v>
+        <v>-0.04226260409967987</v>
       </c>
       <c r="E44">
-        <v>0.03987365008776992</v>
+        <v>0.06509465206761246</v>
       </c>
       <c r="F44">
-        <v>0.05419220739052857</v>
+        <v>-0.1075725676411667</v>
       </c>
       <c r="G44">
-        <v>-0.08356256246430008</v>
+        <v>0.2066651631766268</v>
       </c>
       <c r="H44">
-        <v>0.01002638859850607</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.09010279558489188</v>
+      </c>
+      <c r="I44">
+        <v>0.08482530259921499</v>
+      </c>
+      <c r="J44">
+        <v>-0.1472123700136396</v>
+      </c>
+      <c r="K44">
+        <v>0.02008951043942943</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2278,404 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.04985433149416975</v>
+        <v>-0.02673826750099714</v>
       </c>
       <c r="C46">
-        <v>0.04074244870449056</v>
+        <v>-0.00272185430856191</v>
       </c>
       <c r="D46">
-        <v>-0.03292193702137496</v>
+        <v>-0.0114168765110465</v>
       </c>
       <c r="E46">
-        <v>0.04672114242520353</v>
+        <v>0.03540209637518738</v>
       </c>
       <c r="F46">
-        <v>0.02643220512944423</v>
+        <v>-0.03315558590442491</v>
       </c>
       <c r="G46">
-        <v>-0.02566782143359434</v>
+        <v>0.04612932307926911</v>
       </c>
       <c r="H46">
-        <v>-0.08129177177807609</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.04800171115388898</v>
+      </c>
+      <c r="I46">
+        <v>-0.003941775527218264</v>
+      </c>
+      <c r="J46">
+        <v>0.05714383899733185</v>
+      </c>
+      <c r="K46">
+        <v>-0.06324248916611983</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.04973638335428853</v>
+        <v>-0.04289018564199593</v>
       </c>
       <c r="C47">
-        <v>-0.0002135387086969669</v>
+        <v>-0.007926287307628435</v>
       </c>
       <c r="D47">
-        <v>-0.004926298716634232</v>
+        <v>-0.002148823437947811</v>
       </c>
       <c r="E47">
-        <v>0.06238476073160575</v>
+        <v>0.01411920432214354</v>
       </c>
       <c r="F47">
-        <v>0.007703448995935599</v>
+        <v>-0.001273260767864631</v>
       </c>
       <c r="G47">
-        <v>0.008024788328112408</v>
+        <v>0.04809845820920248</v>
       </c>
       <c r="H47">
-        <v>-0.03037078775685264</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.01960695333743692</v>
+      </c>
+      <c r="I47">
+        <v>0.02295273007491766</v>
+      </c>
+      <c r="J47">
+        <v>0.04228096526528931</v>
+      </c>
+      <c r="K47">
+        <v>-0.06687434812042249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.04477232788654362</v>
+        <v>-0.03703277754237365</v>
       </c>
       <c r="C48">
-        <v>-0.0002750205665894049</v>
+        <v>0.001394017087945495</v>
       </c>
       <c r="D48">
-        <v>0.002189050699379118</v>
+        <v>-0.009875089750945634</v>
       </c>
       <c r="E48">
-        <v>0.03937271125800029</v>
+        <v>0.002413848057667343</v>
       </c>
       <c r="F48">
-        <v>0.003964502265971797</v>
+        <v>0.002373413078092726</v>
       </c>
       <c r="G48">
-        <v>-0.04452409583557107</v>
+        <v>0.04743323608996753</v>
       </c>
       <c r="H48">
-        <v>-0.01559788380405395</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.035095889163537</v>
+      </c>
+      <c r="I48">
+        <v>0.03442210239246244</v>
+      </c>
+      <c r="J48">
+        <v>0.027761804742291</v>
+      </c>
+      <c r="K48">
+        <v>-0.02821947020024196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0.2361253950009098</v>
+        <v>-0.2335198817126775</v>
       </c>
       <c r="C49">
-        <v>0.06710482159958141</v>
+        <v>-0.03713877335628693</v>
       </c>
       <c r="D49">
-        <v>-0.006760414620561863</v>
+        <v>0.05303598473488013</v>
       </c>
       <c r="E49">
-        <v>-0.09572548791380338</v>
+        <v>-0.03427776228998155</v>
       </c>
       <c r="F49">
-        <v>-0.118054436545199</v>
+        <v>-0.03873013317408776</v>
       </c>
       <c r="G49">
-        <v>0.106769199799963</v>
+        <v>-0.2084757636425665</v>
       </c>
       <c r="H49">
-        <v>0.09861952684519107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.05142257236872604</v>
+      </c>
+      <c r="I49">
+        <v>-0.2102401073741492</v>
+      </c>
+      <c r="J49">
+        <v>-0.1570134028020728</v>
+      </c>
+      <c r="K49">
+        <v>0.1158303664623747</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.05534689388930728</v>
+        <v>-0.0438641870604518</v>
       </c>
       <c r="C50">
-        <v>0.01476834876029815</v>
+        <v>-0.0184411346472085</v>
       </c>
       <c r="D50">
-        <v>-0.002312180381997571</v>
+        <v>0.005303936014571364</v>
       </c>
       <c r="E50">
-        <v>0.01702716858784323</v>
+        <v>0.00405165224802322</v>
       </c>
       <c r="F50">
-        <v>0.05335207267882541</v>
+        <v>-0.003090659778158905</v>
       </c>
       <c r="G50">
-        <v>0.0008197592084680053</v>
+        <v>0.03946281956151124</v>
       </c>
       <c r="H50">
-        <v>-0.055503667104694</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.0534656894093548</v>
+      </c>
+      <c r="I50">
+        <v>-0.007661508093379918</v>
+      </c>
+      <c r="J50">
+        <v>0.03845631199114096</v>
+      </c>
+      <c r="K50">
+        <v>-0.03613221223483636</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.03830197339912744</v>
+        <v>-0.01856209732073969</v>
       </c>
       <c r="C51">
-        <v>0.007368138733307433</v>
+        <v>0.0052546328787051</v>
       </c>
       <c r="D51">
-        <v>-0.0149594089810447</v>
+        <v>-0.01311294600724633</v>
       </c>
       <c r="E51">
-        <v>-0.009145135116776028</v>
+        <v>0.004285655281621242</v>
       </c>
       <c r="F51">
-        <v>0.01510339322450321</v>
+        <v>-0.01967609687275048</v>
       </c>
       <c r="G51">
-        <v>0.01422937035471485</v>
+        <v>-0.02695999196365039</v>
       </c>
       <c r="H51">
-        <v>0.03407180509891915</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.0003734151143889175</v>
+      </c>
+      <c r="I51">
+        <v>-0.01028561477624467</v>
+      </c>
+      <c r="J51">
+        <v>-0.007745691791492744</v>
+      </c>
+      <c r="K51">
+        <v>-0.0006721071027215043</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.07743025412504372</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.04334373760602958</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.001698378204016497</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.02344390182623075</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.003082574199792281</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.07106486995479561</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.05083454022405959</v>
+      </c>
+      <c r="I52">
+        <v>0.009664995570918487</v>
+      </c>
+      <c r="J52">
+        <v>0.1048057387660866</v>
+      </c>
+      <c r="K52">
+        <v>0.04869502644450482</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.1618902490617866</v>
+        <v>-0.1616443868026253</v>
       </c>
       <c r="C53">
-        <v>-0.00789600070182082</v>
+        <v>-0.02560994943946537</v>
       </c>
       <c r="D53">
-        <v>0.01963948325280401</v>
+        <v>-0.009526408564531474</v>
       </c>
       <c r="E53">
-        <v>-0.06652319718011515</v>
+        <v>-0.006454352570253432</v>
       </c>
       <c r="F53">
-        <v>0.2262432182408387</v>
+        <v>-0.01358051168068078</v>
       </c>
       <c r="G53">
-        <v>0.03992293890446662</v>
+        <v>0.02893435166027889</v>
       </c>
       <c r="H53">
-        <v>-0.03952184945422813</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.08576517675500957</v>
+      </c>
+      <c r="I53">
+        <v>-0.04619685100351804</v>
+      </c>
+      <c r="J53">
+        <v>0.2192906442341613</v>
+      </c>
+      <c r="K53">
+        <v>-0.05507269998069543</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.05478081361809786</v>
+        <v>-0.0518682683284663</v>
       </c>
       <c r="C54">
-        <v>0.007893434125554512</v>
+        <v>-0.01763003568213541</v>
       </c>
       <c r="D54">
-        <v>-0.0295338098907204</v>
+        <v>-0.0004578659531966246</v>
       </c>
       <c r="E54">
-        <v>0.03772242657384612</v>
+        <v>0.02782349839606514</v>
       </c>
       <c r="F54">
-        <v>0.01733198316759814</v>
+        <v>-0.01065866219559812</v>
       </c>
       <c r="G54">
-        <v>-0.05927742010613335</v>
+        <v>0.05282437125593231</v>
       </c>
       <c r="H54">
-        <v>-0.09798989186356824</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.09761638391206127</v>
+      </c>
+      <c r="I54">
+        <v>0.0925830690361454</v>
+      </c>
+      <c r="J54">
+        <v>0.04963720063820916</v>
+      </c>
+      <c r="K54">
+        <v>-0.1168697424472877</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.09639164874220443</v>
+        <v>-0.08696215077364737</v>
       </c>
       <c r="C55">
-        <v>0.005796089959535014</v>
+        <v>-0.02094797414365775</v>
       </c>
       <c r="D55">
-        <v>0.00155833300929491</v>
+        <v>-0.0499058622272305</v>
       </c>
       <c r="E55">
-        <v>-0.01282993256583344</v>
+        <v>-0.02399323889337658</v>
       </c>
       <c r="F55">
-        <v>0.1693971347015522</v>
+        <v>-0.01121970897504958</v>
       </c>
       <c r="G55">
-        <v>-0.009688617184798607</v>
+        <v>0.01940369448947145</v>
       </c>
       <c r="H55">
-        <v>-0.06655865210810348</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.004022971200406885</v>
+      </c>
+      <c r="I55">
+        <v>-0.01476977457113532</v>
+      </c>
+      <c r="J55">
+        <v>0.1568830300545434</v>
+      </c>
+      <c r="K55">
+        <v>-0.04381587676678755</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.1633001270635801</v>
+        <v>-0.1611390520877185</v>
       </c>
       <c r="C56">
-        <v>-0.008208925298774535</v>
+        <v>-0.03815423785810242</v>
       </c>
       <c r="D56">
-        <v>0.03756375669784934</v>
+        <v>-0.02237501942929164</v>
       </c>
       <c r="E56">
-        <v>-0.06298457047697907</v>
+        <v>-0.02555506733444037</v>
       </c>
       <c r="F56">
-        <v>0.2328337934227376</v>
+        <v>-0.02324592420230302</v>
       </c>
       <c r="G56">
-        <v>0.02515174782932588</v>
+        <v>0.05002331678496848</v>
       </c>
       <c r="H56">
-        <v>-0.05276699303312461</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.01706912029448104</v>
+      </c>
+      <c r="I56">
+        <v>-0.07210491044191582</v>
+      </c>
+      <c r="J56">
+        <v>0.1924060199865667</v>
+      </c>
+      <c r="K56">
+        <v>-0.04605761687329683</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2698,1559 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.0180451810064964</v>
+        <v>-0.03725450130650281</v>
       </c>
       <c r="C58">
-        <v>0.08159996971707485</v>
+        <v>-0.01806670102698719</v>
       </c>
       <c r="D58">
-        <v>-0.0220527754241589</v>
+        <v>-0.003606694523420483</v>
       </c>
       <c r="E58">
-        <v>0.2477888816758501</v>
+        <v>0.08463514390339198</v>
       </c>
       <c r="F58">
-        <v>-0.3501638092618323</v>
+        <v>-0.01150687633981593</v>
       </c>
       <c r="G58">
-        <v>-0.07123846337873269</v>
+        <v>0.107796212550132</v>
       </c>
       <c r="H58">
-        <v>0.09064878392733949</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.02877616445497028</v>
+      </c>
+      <c r="I58">
+        <v>0.04660502646673442</v>
+      </c>
+      <c r="J58">
+        <v>-0.02882684907646677</v>
+      </c>
+      <c r="K58">
+        <v>-0.05054499510882932</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.15075610669317</v>
+        <v>-0.1715584635374902</v>
       </c>
       <c r="C59">
-        <v>-0.3851016243188831</v>
+        <v>0.2930626207181481</v>
       </c>
       <c r="D59">
-        <v>-0.05797996255087093</v>
+        <v>-0.03790778276752264</v>
       </c>
       <c r="E59">
-        <v>-0.06586684482396468</v>
+        <v>-0.06443371834697012</v>
       </c>
       <c r="F59">
-        <v>0.02978775690785024</v>
+        <v>-0.03439874403634834</v>
       </c>
       <c r="G59">
-        <v>-0.02351121741827202</v>
+        <v>-0.02296292150457729</v>
       </c>
       <c r="H59">
-        <v>0.04073808726746972</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.0122179209741108</v>
+      </c>
+      <c r="I59">
+        <v>0.02910495185365505</v>
+      </c>
+      <c r="J59">
+        <v>0.02876345381515872</v>
+      </c>
+      <c r="K59">
+        <v>0.07593663285793395</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.2746661952590044</v>
+        <v>-0.2808053280973737</v>
       </c>
       <c r="C60">
-        <v>0.05346311222478355</v>
+        <v>-0.1353468100558451</v>
       </c>
       <c r="D60">
-        <v>-0.01726603642148695</v>
+        <v>0.04436567580476412</v>
       </c>
       <c r="E60">
-        <v>-0.07168206842517191</v>
+        <v>-0.06745014032971168</v>
       </c>
       <c r="F60">
-        <v>-0.07603054004736422</v>
+        <v>-0.09904682077813687</v>
       </c>
       <c r="G60">
-        <v>0.1498169680293435</v>
+        <v>-0.05927931944477353</v>
       </c>
       <c r="H60">
-        <v>0.05656723192364337</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.1272398990036235</v>
+      </c>
+      <c r="I60">
+        <v>-0.1827177853484339</v>
+      </c>
+      <c r="J60">
+        <v>-0.2723794415071476</v>
+      </c>
+      <c r="K60">
+        <v>0.07447601087262273</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.09523779773576573</v>
+        <v>-0.1109363534464394</v>
       </c>
       <c r="C61">
-        <v>0.02254936438881613</v>
+        <v>-0.05326245835148692</v>
       </c>
       <c r="D61">
-        <v>-0.01191094141800869</v>
+        <v>-0.03267114499188952</v>
       </c>
       <c r="E61">
-        <v>0.02274133652793753</v>
+        <v>-0.06614183630633377</v>
       </c>
       <c r="F61">
-        <v>0.0242427165019678</v>
+        <v>-0.02938415551409306</v>
       </c>
       <c r="G61">
-        <v>-0.06126216461726829</v>
+        <v>0.1084481004522164</v>
       </c>
       <c r="H61">
-        <v>0.04902451629061999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.08824356682008463</v>
+      </c>
+      <c r="I61">
+        <v>0.040167807228142</v>
+      </c>
+      <c r="J61">
+        <v>0.05148151784556624</v>
+      </c>
+      <c r="K61">
+        <v>0.09785622698553131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0.14428874214836</v>
+        <v>-0.1538767667206677</v>
       </c>
       <c r="C62">
-        <v>0.02061505993203799</v>
+        <v>-0.03608121258224752</v>
       </c>
       <c r="D62">
-        <v>0.03878475211497086</v>
+        <v>-0.02081343860413756</v>
       </c>
       <c r="E62">
-        <v>-0.119779981822357</v>
+        <v>-0.03106962790200473</v>
       </c>
       <c r="F62">
-        <v>0.1987071438610457</v>
+        <v>-0.01473407441273611</v>
       </c>
       <c r="G62">
-        <v>0.009125538628648774</v>
+        <v>0.02779718266231842</v>
       </c>
       <c r="H62">
-        <v>-0.06555259548486062</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.07165089283339812</v>
+      </c>
+      <c r="I62">
+        <v>-0.04423928798081122</v>
+      </c>
+      <c r="J62">
+        <v>0.1638917617191198</v>
+      </c>
+      <c r="K62">
+        <v>-0.05969215127869727</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.0426136094748626</v>
+        <v>-0.0402807652568531</v>
       </c>
       <c r="C63">
-        <v>0.01972325055116139</v>
+        <v>-0.001464472660480713</v>
       </c>
       <c r="D63">
-        <v>-0.0007971750920438603</v>
+        <v>-0.01430362015617635</v>
       </c>
       <c r="E63">
-        <v>0.01266457747042874</v>
+        <v>0.004296901532459881</v>
       </c>
       <c r="F63">
-        <v>0.01662725468922647</v>
+        <v>0.02623950122756299</v>
       </c>
       <c r="G63">
-        <v>-0.0411673789804417</v>
+        <v>0.03035344707766388</v>
       </c>
       <c r="H63">
-        <v>-0.09898770761011004</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.06916751402475885</v>
+      </c>
+      <c r="I63">
+        <v>0.007472307209903951</v>
+      </c>
+      <c r="J63">
+        <v>0.03878863999398577</v>
+      </c>
+      <c r="K63">
+        <v>-0.03025889281945092</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.1098209363092787</v>
+        <v>-0.09908862436820239</v>
       </c>
       <c r="C64">
-        <v>0.01315461478252692</v>
+        <v>-0.02184129803514731</v>
       </c>
       <c r="D64">
-        <v>-0.04550025607665762</v>
+        <v>0.006382486294360078</v>
       </c>
       <c r="E64">
-        <v>0.04119046411766025</v>
+        <v>-0.000150001021220777</v>
       </c>
       <c r="F64">
-        <v>-0.01322902338257476</v>
+        <v>-0.0532185245552966</v>
       </c>
       <c r="G64">
-        <v>-0.05190960587438857</v>
+        <v>0.04540077070300499</v>
       </c>
       <c r="H64">
-        <v>0.004487675862979259</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.04900101930605645</v>
+      </c>
+      <c r="I64">
+        <v>0.01298192346881657</v>
+      </c>
+      <c r="J64">
+        <v>-0.06344835292307435</v>
+      </c>
+      <c r="K64">
+        <v>-0.0005213471775091615</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.1166891123879843</v>
+        <v>-0.1172080237904062</v>
       </c>
       <c r="C65">
-        <v>0.02505766435437472</v>
+        <v>-0.002860175930826855</v>
       </c>
       <c r="D65">
-        <v>0.01549423349446958</v>
+        <v>0.000403618451891975</v>
       </c>
       <c r="E65">
-        <v>0.06349201650285495</v>
+        <v>0.006640716992519069</v>
       </c>
       <c r="F65">
-        <v>-0.2955591053124474</v>
+        <v>0.05931944904915218</v>
       </c>
       <c r="G65">
-        <v>0.1456135801219953</v>
+        <v>-0.02591133940631856</v>
       </c>
       <c r="H65">
-        <v>-0.6560461873243958</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.01401778324836173</v>
+      </c>
+      <c r="I65">
+        <v>0.02975642527543283</v>
+      </c>
+      <c r="J65">
+        <v>-0.2595968095962722</v>
+      </c>
+      <c r="K65">
+        <v>-0.4302085789121105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.1567741629222918</v>
+        <v>-0.1562661987224582</v>
       </c>
       <c r="C66">
-        <v>0.05093731075076671</v>
+        <v>-0.1128630368594045</v>
       </c>
       <c r="D66">
-        <v>-0.02251718887047708</v>
+        <v>-0.04053381660986465</v>
       </c>
       <c r="E66">
-        <v>0.01962525708288281</v>
+        <v>-0.1125927813650617</v>
       </c>
       <c r="F66">
-        <v>0.01140618087119268</v>
+        <v>-0.008826731251420486</v>
       </c>
       <c r="G66">
-        <v>-0.2801525144624242</v>
+        <v>0.1022237849792429</v>
       </c>
       <c r="H66">
-        <v>0.2097910456461746</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.1139244283745796</v>
+      </c>
+      <c r="I66">
+        <v>-0.06094235264020118</v>
+      </c>
+      <c r="J66">
+        <v>0.01374901131114496</v>
+      </c>
+      <c r="K66">
+        <v>0.2201662640379237</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.1100873824713184</v>
+        <v>-0.07945490405910079</v>
       </c>
       <c r="C67">
-        <v>0.03424221649473533</v>
+        <v>-0.04302725689696964</v>
       </c>
       <c r="D67">
-        <v>-0.02599708588121897</v>
+        <v>-0.07821551980550191</v>
       </c>
       <c r="E67">
-        <v>-0.02404681453743513</v>
+        <v>0.002507850209321622</v>
       </c>
       <c r="F67">
-        <v>0.04334296970683928</v>
+        <v>-0.02573146907305252</v>
       </c>
       <c r="G67">
-        <v>-0.04493495933396045</v>
+        <v>-0.06715754028559344</v>
       </c>
       <c r="H67">
-        <v>0.0201729710977921</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.00798932136388535</v>
+      </c>
+      <c r="I67">
+        <v>-0.008392163567166837</v>
+      </c>
+      <c r="J67">
+        <v>-0.009677371242694579</v>
+      </c>
+      <c r="K67">
+        <v>-0.01080923365128166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.03778238474046972</v>
+        <v>-0.07857175270269724</v>
       </c>
       <c r="C68">
-        <v>-0.292821129873135</v>
+        <v>0.288514168939736</v>
       </c>
       <c r="D68">
-        <v>-0.003548434144603813</v>
+        <v>-0.01547847508651252</v>
       </c>
       <c r="E68">
-        <v>-0.0009285414891340881</v>
+        <v>-0.02584445132809668</v>
       </c>
       <c r="F68">
-        <v>0.001015543434029312</v>
+        <v>0.01415115201649692</v>
       </c>
       <c r="G68">
-        <v>0.02226451775582935</v>
+        <v>0.03449549912876328</v>
       </c>
       <c r="H68">
-        <v>-0.03259289713828792</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.04407424749695444</v>
+      </c>
+      <c r="I68">
+        <v>0.01017295827861438</v>
+      </c>
+      <c r="J68">
+        <v>-0.01160913649712892</v>
+      </c>
+      <c r="K68">
+        <v>-0.0113632455239622</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.04906936406662782</v>
+        <v>-0.03900825485195889</v>
       </c>
       <c r="C69">
-        <v>0.01218695621948154</v>
+        <v>-0.004358108555717845</v>
       </c>
       <c r="D69">
-        <v>0.005699994736559875</v>
+        <v>-0.02590797522642355</v>
       </c>
       <c r="E69">
-        <v>-0.002501848305157288</v>
+        <v>-0.0025261162599227</v>
       </c>
       <c r="F69">
-        <v>0.002551893761419641</v>
+        <v>-0.01024975809548085</v>
       </c>
       <c r="G69">
-        <v>-0.01497169325871999</v>
+        <v>0.0222333536125139</v>
       </c>
       <c r="H69">
-        <v>-0.02342613056610215</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.00714113793298965</v>
+      </c>
+      <c r="I69">
+        <v>-0.0008524451119166227</v>
+      </c>
+      <c r="J69">
+        <v>0.02450647564940106</v>
+      </c>
+      <c r="K69">
+        <v>-0.02800060579454103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>0.08015455440616551</v>
+        <v>-0.0423212064808616</v>
       </c>
       <c r="C70">
-        <v>0.0136940015732675</v>
+        <v>0.001122793069711059</v>
       </c>
       <c r="D70">
-        <v>-0.0387379281911897</v>
+        <v>-0.03149543696874381</v>
       </c>
       <c r="E70">
-        <v>-0.02676618123456335</v>
+        <v>-0.03278948377446385</v>
       </c>
       <c r="F70">
-        <v>-0.0143547073081251</v>
+        <v>-0.03414512077498047</v>
       </c>
       <c r="G70">
-        <v>0.02983503404209723</v>
+        <v>0.01954431161442323</v>
       </c>
       <c r="H70">
-        <v>0.01665650544571718</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.0526423599784969</v>
+      </c>
+      <c r="I70">
+        <v>0.0990842723475089</v>
+      </c>
+      <c r="J70">
+        <v>-0.02991702775250286</v>
+      </c>
+      <c r="K70">
+        <v>-0.1637392345697743</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.04922402086590348</v>
+        <v>-0.09206909497581196</v>
       </c>
       <c r="C71">
-        <v>-0.2999675697876478</v>
+        <v>0.3015143966203544</v>
       </c>
       <c r="D71">
-        <v>-0.02080610610234492</v>
+        <v>-0.01884600959555655</v>
       </c>
       <c r="E71">
-        <v>0.00178115272176003</v>
+        <v>-0.02161751769015494</v>
       </c>
       <c r="F71">
-        <v>-0.006476622136224489</v>
+        <v>-0.01408058690702414</v>
       </c>
       <c r="G71">
-        <v>-0.008935143143679115</v>
+        <v>0.04251414064727518</v>
       </c>
       <c r="H71">
-        <v>-0.01106211683920101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.04434291679205817</v>
+      </c>
+      <c r="I71">
+        <v>-0.0009016544351157494</v>
+      </c>
+      <c r="J71">
+        <v>-0.02738692740343376</v>
+      </c>
+      <c r="K71">
+        <v>0.00755961389870616</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.1416478393838568</v>
+        <v>-0.142403710055516</v>
       </c>
       <c r="C72">
-        <v>-0.02343442665021495</v>
+        <v>0.01461835312437102</v>
       </c>
       <c r="D72">
-        <v>0.2158446409580231</v>
+        <v>-0.008795381897520571</v>
       </c>
       <c r="E72">
-        <v>-0.02925937117869042</v>
+        <v>0.003887899131688626</v>
       </c>
       <c r="F72">
-        <v>-0.03602672097561871</v>
+        <v>0.08367835686592291</v>
       </c>
       <c r="G72">
-        <v>-0.0926352484095079</v>
+        <v>-0.01704082727737027</v>
       </c>
       <c r="H72">
-        <v>-0.1086217644366715</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.04033819421919448</v>
+      </c>
+      <c r="I72">
+        <v>-0.06493756472553422</v>
+      </c>
+      <c r="J72">
+        <v>0.02809441274318244</v>
+      </c>
+      <c r="K72">
+        <v>-0.1233606681547924</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.284494120980958</v>
+        <v>-0.2463676562808201</v>
       </c>
       <c r="C73">
-        <v>0.1459830180658561</v>
+        <v>-0.09284391034507136</v>
       </c>
       <c r="D73">
-        <v>-0.03886482175957367</v>
+        <v>-0.02332744002909793</v>
       </c>
       <c r="E73">
-        <v>-0.1499700748613126</v>
+        <v>-0.09408437947792317</v>
       </c>
       <c r="F73">
-        <v>-0.3076171895934294</v>
+        <v>-0.1248784890914463</v>
       </c>
       <c r="G73">
-        <v>0.2998412162095166</v>
+        <v>-0.2995146416214921</v>
       </c>
       <c r="H73">
-        <v>0.1778155928564481</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.2006113239506993</v>
+      </c>
+      <c r="I73">
+        <v>-0.2152154642085042</v>
+      </c>
+      <c r="J73">
+        <v>-0.2545016241702538</v>
+      </c>
+      <c r="K73">
+        <v>0.06107925219870113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.1012004549012018</v>
+        <v>-0.1124833798589775</v>
       </c>
       <c r="C74">
-        <v>0.03039756594235282</v>
+        <v>-0.04105597445274377</v>
       </c>
       <c r="D74">
-        <v>-0.000664626597157627</v>
+        <v>-0.01997471893760735</v>
       </c>
       <c r="E74">
-        <v>-0.02533289567398458</v>
+        <v>-0.001836607933074071</v>
       </c>
       <c r="F74">
-        <v>0.1139226055545363</v>
+        <v>-0.007041265762733984</v>
       </c>
       <c r="G74">
-        <v>0.03844900095496145</v>
+        <v>0.05782508795033316</v>
       </c>
       <c r="H74">
-        <v>-0.03344399237288268</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.03686380254204863</v>
+      </c>
+      <c r="I74">
+        <v>-0.08449769386840206</v>
+      </c>
+      <c r="J74">
+        <v>0.135342845732711</v>
+      </c>
+      <c r="K74">
+        <v>-0.05783940802175756</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.09251815664550277</v>
+        <v>-0.1151482661898468</v>
       </c>
       <c r="C75">
-        <v>0.01915888502697501</v>
+        <v>-0.04232082406771744</v>
       </c>
       <c r="D75">
-        <v>0.03132402100930103</v>
+        <v>-0.01003603690086586</v>
       </c>
       <c r="E75">
-        <v>-0.03716336101654984</v>
+        <v>-0.002127465282707741</v>
       </c>
       <c r="F75">
-        <v>0.1127719658022504</v>
+        <v>0.01176129899826684</v>
       </c>
       <c r="G75">
-        <v>0.05318777418511447</v>
+        <v>0.0003745758525636234</v>
       </c>
       <c r="H75">
-        <v>-0.02152897429413528</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.01342330570405441</v>
+      </c>
+      <c r="I75">
+        <v>-0.04388699390759183</v>
+      </c>
+      <c r="J75">
+        <v>0.1526053368572809</v>
+      </c>
+      <c r="K75">
+        <v>-0.02139975476275551</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.1387434014566635</v>
+        <v>-0.05136450254236447</v>
       </c>
       <c r="C76">
-        <v>0.02433830832660189</v>
+        <v>-0.009592126921121807</v>
       </c>
       <c r="D76">
-        <v>0.0006568912682802809</v>
+        <v>-0.02692644240552989</v>
       </c>
       <c r="E76">
-        <v>-0.01032510713797674</v>
+        <v>0.005918849608984409</v>
       </c>
       <c r="F76">
-        <v>0.2573145878866767</v>
+        <v>-0.02978337045717777</v>
       </c>
       <c r="G76">
-        <v>0.08374149211038731</v>
+        <v>-0.03961681368026939</v>
       </c>
       <c r="H76">
-        <v>-0.04361126909811337</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.02060878978278871</v>
+      </c>
+      <c r="I76">
+        <v>-0.0359042756873403</v>
+      </c>
+      <c r="J76">
+        <v>0.1185446527612876</v>
+      </c>
+      <c r="K76">
+        <v>-0.06440782833516291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.0836958117445149</v>
+        <v>-0.07694045490103607</v>
       </c>
       <c r="C77">
-        <v>-0.008487732061725317</v>
+        <v>-0.07704297563778396</v>
       </c>
       <c r="D77">
-        <v>-0.06941972360838637</v>
+        <v>0.005718408629829965</v>
       </c>
       <c r="E77">
-        <v>0.09686799185947133</v>
+        <v>0.005019664646433776</v>
       </c>
       <c r="F77">
-        <v>-0.2565105222912102</v>
+        <v>-0.05438513212092266</v>
       </c>
       <c r="G77">
-        <v>-0.1485944695883484</v>
+        <v>0.06268974354053305</v>
       </c>
       <c r="H77">
-        <v>0.1308995684270071</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.1929663736791259</v>
+      </c>
+      <c r="I77">
+        <v>0.1325596885099141</v>
+      </c>
+      <c r="J77">
+        <v>-0.3472817794548069</v>
+      </c>
+      <c r="K77">
+        <v>0.02612710482543193</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.2214987031618002</v>
+        <v>-0.1545510545684365</v>
       </c>
       <c r="C78">
-        <v>0.05437243643437031</v>
+        <v>-0.06502235954694235</v>
       </c>
       <c r="D78">
-        <v>-0.08621845170127955</v>
+        <v>-0.09122048692369676</v>
       </c>
       <c r="E78">
-        <v>0.1831295149746951</v>
+        <v>0.2665926830301306</v>
       </c>
       <c r="F78">
-        <v>-0.04521224290586501</v>
+        <v>0.04611555697660822</v>
       </c>
       <c r="G78">
-        <v>-0.1447802793624286</v>
+        <v>-0.6572613245811281</v>
       </c>
       <c r="H78">
-        <v>-0.06309422808024263</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.3178296967857377</v>
+      </c>
+      <c r="I78">
+        <v>0.461699822402157</v>
+      </c>
+      <c r="J78">
+        <v>0.1794330563854602</v>
+      </c>
+      <c r="K78">
+        <v>0.1475589455369911</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.1358904073632784</v>
+        <v>-0.1354656850905607</v>
       </c>
       <c r="C79">
-        <v>0.00910164233718848</v>
+        <v>-0.03745023055936995</v>
       </c>
       <c r="D79">
-        <v>0.007470893066566018</v>
+        <v>0.007251299382607121</v>
       </c>
       <c r="E79">
-        <v>-0.02022870320792148</v>
+        <v>-0.00615016750340215</v>
       </c>
       <c r="F79">
-        <v>0.1463513522421744</v>
+        <v>-0.01306787893312059</v>
       </c>
       <c r="G79">
-        <v>-0.004940715346964607</v>
+        <v>0.02909655324627933</v>
       </c>
       <c r="H79">
-        <v>-0.05604481549567619</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.02140884528860366</v>
+      </c>
+      <c r="I79">
+        <v>-0.08037084600000054</v>
+      </c>
+      <c r="J79">
+        <v>0.1379357323042265</v>
+      </c>
+      <c r="K79">
+        <v>-0.06731805124696004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.03439093502543818</v>
+        <v>-0.06872017618713162</v>
       </c>
       <c r="C80">
-        <v>0.00726372634791655</v>
+        <v>-0.05261081918297077</v>
       </c>
       <c r="D80">
-        <v>-0.02578568167641919</v>
+        <v>-0.04834560828728554</v>
       </c>
       <c r="E80">
-        <v>-0.04077903010892231</v>
+        <v>-0.0606487814483417</v>
       </c>
       <c r="F80">
-        <v>-0.03099636181041245</v>
+        <v>-0.004345151608022857</v>
       </c>
       <c r="G80">
-        <v>-0.06250633729854542</v>
+        <v>0.07344634305329216</v>
       </c>
       <c r="H80">
-        <v>-0.1125720427092863</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.1007175002258046</v>
+      </c>
+      <c r="I80">
+        <v>0.2397233652529898</v>
+      </c>
+      <c r="J80">
+        <v>0.0821561757970386</v>
+      </c>
+      <c r="K80">
+        <v>0.03166358665138232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.1132691848606191</v>
+        <v>-0.1359592365778953</v>
       </c>
       <c r="C81">
-        <v>-0.0001274655408794683</v>
+        <v>-0.04402517843002211</v>
       </c>
       <c r="D81">
-        <v>-0.009247338606939205</v>
+        <v>-0.008618644699001315</v>
       </c>
       <c r="E81">
-        <v>-0.01473706061743301</v>
+        <v>-0.001001185119291516</v>
       </c>
       <c r="F81">
-        <v>0.1305840100120836</v>
+        <v>-0.0155550126122575</v>
       </c>
       <c r="G81">
-        <v>0.0237264958314007</v>
+        <v>0.05692556774004323</v>
       </c>
       <c r="H81">
-        <v>0.004201217121204447</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.003289761558346104</v>
+      </c>
+      <c r="I81">
+        <v>-0.04460894172624905</v>
+      </c>
+      <c r="J81">
+        <v>0.1695353500187924</v>
+      </c>
+      <c r="K81">
+        <v>-0.01554363786816708</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.1103406068774941</v>
+        <v>-0.1495436087311734</v>
       </c>
       <c r="C82">
-        <v>0.01970769344311776</v>
+        <v>-0.04270286950823006</v>
       </c>
       <c r="D82">
-        <v>-0.03780241745810223</v>
+        <v>-0.0200402995465344</v>
       </c>
       <c r="E82">
-        <v>-0.06852533284797101</v>
+        <v>-0.0485097963931176</v>
       </c>
       <c r="F82">
-        <v>0.2462320921515976</v>
+        <v>-0.03574978034899792</v>
       </c>
       <c r="G82">
-        <v>-0.005650450591770869</v>
+        <v>0.06905316865751382</v>
       </c>
       <c r="H82">
-        <v>-0.03297335503264343</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.09157333306860348</v>
+      </c>
+      <c r="I82">
+        <v>-0.07361943768818702</v>
+      </c>
+      <c r="J82">
+        <v>0.23217686528361</v>
+      </c>
+      <c r="K82">
+        <v>0.02545820744514144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.1106671740200319</v>
+        <v>-0.08966517412167604</v>
       </c>
       <c r="C83">
-        <v>0.04566825187545332</v>
+        <v>-0.06505986566905372</v>
       </c>
       <c r="D83">
-        <v>-0.07264133012951617</v>
+        <v>0.0142535654715573</v>
       </c>
       <c r="E83">
-        <v>-0.03128737619289467</v>
+        <v>0.009678579787398197</v>
       </c>
       <c r="F83">
-        <v>-0.05297095634361786</v>
+        <v>-0.003126575670966835</v>
       </c>
       <c r="G83">
-        <v>-0.05677359958483944</v>
+        <v>0.1010727155002825</v>
       </c>
       <c r="H83">
-        <v>0.07443288497095707</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.1000029308138436</v>
+      </c>
+      <c r="I83">
+        <v>0.2855280628582427</v>
+      </c>
+      <c r="J83">
+        <v>-0.03030777990926269</v>
+      </c>
+      <c r="K83">
+        <v>-0.2688647040196745</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.0514603985365777</v>
+        <v>-0.06670854979359774</v>
       </c>
       <c r="C84">
-        <v>0.02565635486638415</v>
+        <v>-0.006968807005786236</v>
       </c>
       <c r="D84">
-        <v>0.05256114596577504</v>
+        <v>0.0194495364698169</v>
       </c>
       <c r="E84">
-        <v>0.03026127953034327</v>
+        <v>-0.04148395906649905</v>
       </c>
       <c r="F84">
-        <v>0.06458903282903063</v>
+        <v>-0.006552728628480026</v>
       </c>
       <c r="G84">
-        <v>0.0395071936097986</v>
+        <v>0.003171711407410686</v>
       </c>
       <c r="H84">
-        <v>-0.001863808239769638</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.04906974781726233</v>
+      </c>
+      <c r="I84">
+        <v>0.002015227351579725</v>
+      </c>
+      <c r="J84">
+        <v>-0.07204053133051289</v>
+      </c>
+      <c r="K84">
+        <v>0.4201513870520311</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.1026893804151445</v>
+        <v>-0.1202869130691243</v>
       </c>
       <c r="C85">
-        <v>0.0153587357920027</v>
+        <v>-0.02889820266488378</v>
       </c>
       <c r="D85">
-        <v>-0.01152551940807547</v>
+        <v>-0.008907374530944522</v>
       </c>
       <c r="E85">
-        <v>-0.02675080754039199</v>
+        <v>-0.01075937661413581</v>
       </c>
       <c r="F85">
-        <v>0.1873823475985185</v>
+        <v>-0.03365537067487724</v>
       </c>
       <c r="G85">
-        <v>-0.008373799828748873</v>
+        <v>0.03943742502115752</v>
       </c>
       <c r="H85">
-        <v>-0.0934433359355557</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.01047560118218764</v>
+      </c>
+      <c r="I85">
+        <v>-0.04383674088008761</v>
+      </c>
+      <c r="J85">
+        <v>0.1710058659563555</v>
+      </c>
+      <c r="K85">
+        <v>-0.04715810851783224</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.06726101070100517</v>
+        <v>-0.1260713597391058</v>
       </c>
       <c r="C86">
-        <v>0.02131316088542261</v>
+        <v>-0.01768882242924902</v>
       </c>
       <c r="D86">
-        <v>-0.09349723757069027</v>
+        <v>0.9421281407157264</v>
       </c>
       <c r="E86">
-        <v>0.05155799091947968</v>
+        <v>0.1202685123253945</v>
       </c>
       <c r="F86">
-        <v>-0.01784869628993415</v>
+        <v>0.10913923927315</v>
       </c>
       <c r="G86">
-        <v>-0.07519265711808971</v>
+        <v>0.06991444459387999</v>
       </c>
       <c r="H86">
-        <v>-0.2670267117428657</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.01089825125563831</v>
+      </c>
+      <c r="I86">
+        <v>0.1104663513711978</v>
+      </c>
+      <c r="J86">
+        <v>0.03804686759484768</v>
+      </c>
+      <c r="K86">
+        <v>0.07801621696222931</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.1099605408894465</v>
+        <v>-0.1165908579019613</v>
       </c>
       <c r="C87">
-        <v>0.05514072505180961</v>
+        <v>-0.0929456505027257</v>
       </c>
       <c r="D87">
-        <v>-0.02810126492702771</v>
+        <v>-0.01535938434678411</v>
       </c>
       <c r="E87">
-        <v>0.05619557617648272</v>
+        <v>0.008972159202419878</v>
       </c>
       <c r="F87">
-        <v>-0.03183006189674494</v>
+        <v>-0.03919628098929993</v>
       </c>
       <c r="G87">
-        <v>-0.1241564140975206</v>
+        <v>0.05295490839520981</v>
       </c>
       <c r="H87">
-        <v>-0.001123635066404224</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.1763274065337717</v>
+      </c>
+      <c r="I87">
+        <v>0.04165753212308072</v>
+      </c>
+      <c r="J87">
+        <v>-0.1566889222210128</v>
+      </c>
+      <c r="K87">
+        <v>-0.1546012150305018</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.06985070911140262</v>
+        <v>-0.05660053066136807</v>
       </c>
       <c r="C88">
-        <v>0.04362693681610233</v>
+        <v>-0.03057016613810458</v>
       </c>
       <c r="D88">
-        <v>-0.02859793096114644</v>
+        <v>-0.01383915137160989</v>
       </c>
       <c r="E88">
-        <v>0.01423571484570687</v>
+        <v>-0.04243270527520793</v>
       </c>
       <c r="F88">
-        <v>0.0206706201161864</v>
+        <v>-0.01426428360761689</v>
       </c>
       <c r="G88">
-        <v>-0.04979908825703771</v>
+        <v>0.0149948802649053</v>
       </c>
       <c r="H88">
-        <v>0.01662955969778355</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.03912040435461406</v>
+      </c>
+      <c r="I88">
+        <v>-0.007198299984024806</v>
+      </c>
+      <c r="J88">
+        <v>0.04341737322407265</v>
+      </c>
+      <c r="K88">
+        <v>-0.04123367154160949</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.09295532637941073</v>
+        <v>-0.1450353580540016</v>
       </c>
       <c r="C89">
-        <v>-0.3841923077896602</v>
+        <v>0.3724350315915923</v>
       </c>
       <c r="D89">
-        <v>-0.0780660496778636</v>
+        <v>-0.01712812593799668</v>
       </c>
       <c r="E89">
-        <v>0.02428042045157005</v>
+        <v>0.02825552680238095</v>
       </c>
       <c r="F89">
-        <v>-0.01890484372448038</v>
+        <v>-0.05709798388169794</v>
       </c>
       <c r="G89">
-        <v>0.009014035199405303</v>
+        <v>0.00863889971122454</v>
       </c>
       <c r="H89">
-        <v>0.007384180244335931</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.01966031961780418</v>
+      </c>
+      <c r="I89">
+        <v>0.07518855242164373</v>
+      </c>
+      <c r="J89">
+        <v>-0.02617432100423204</v>
+      </c>
+      <c r="K89">
+        <v>0.05857907809728442</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.07253370201833179</v>
+        <v>-0.1073639431046922</v>
       </c>
       <c r="C90">
-        <v>-0.2921793811466842</v>
+        <v>0.2937971670285948</v>
       </c>
       <c r="D90">
-        <v>-0.0316717643035954</v>
+        <v>-0.00715422415656028</v>
       </c>
       <c r="E90">
-        <v>0.04921347383741749</v>
+        <v>-0.02419322318627956</v>
       </c>
       <c r="F90">
-        <v>-0.04327079582392752</v>
+        <v>-0.02119457290499919</v>
       </c>
       <c r="G90">
-        <v>-0.03044570830883882</v>
+        <v>0.0423393931922028</v>
       </c>
       <c r="H90">
-        <v>0.03799986040826351</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.04220405208357694</v>
+      </c>
+      <c r="I90">
+        <v>0.02160442567648213</v>
+      </c>
+      <c r="J90">
+        <v>-0.05067049056307884</v>
+      </c>
+      <c r="K90">
+        <v>0.01286789404378965</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.0812597379485816</v>
+        <v>-0.08600604788372183</v>
       </c>
       <c r="C91">
-        <v>0.01928310724714172</v>
+        <v>-0.03412498486547764</v>
       </c>
       <c r="D91">
-        <v>-0.006490423733806455</v>
+        <v>0.01314301233413411</v>
       </c>
       <c r="E91">
-        <v>-0.02301347349997514</v>
+        <v>-0.00171227421619943</v>
       </c>
       <c r="F91">
-        <v>0.08865106800701926</v>
+        <v>-0.02328470876337274</v>
       </c>
       <c r="G91">
-        <v>0.0687302149785611</v>
+        <v>0.0171240560763503</v>
       </c>
       <c r="H91">
-        <v>0.01658627178026752</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.02114105141243319</v>
+      </c>
+      <c r="I91">
+        <v>-0.04570267399943539</v>
+      </c>
+      <c r="J91">
+        <v>0.1051475793575418</v>
+      </c>
+      <c r="K91">
+        <v>-0.034830926627836</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.06669909237779302</v>
+        <v>-0.1186392117922484</v>
       </c>
       <c r="C92">
-        <v>-0.3540071461710641</v>
+        <v>0.3393842483987602</v>
       </c>
       <c r="D92">
-        <v>-0.02812437793962807</v>
+        <v>-0.0161166011936183</v>
       </c>
       <c r="E92">
-        <v>0.03531040099337001</v>
+        <v>0.0181519902026058</v>
       </c>
       <c r="F92">
-        <v>-0.05920916722413353</v>
+        <v>-0.01354964966110063</v>
       </c>
       <c r="G92">
-        <v>0.01349103875489498</v>
+        <v>0.02689495994396191</v>
       </c>
       <c r="H92">
-        <v>0.02122899292617497</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.01892635630385062</v>
+      </c>
+      <c r="I92">
+        <v>0.07490878972749034</v>
+      </c>
+      <c r="J92">
+        <v>0.01379728551988643</v>
+      </c>
+      <c r="K92">
+        <v>0.06169527523904018</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.08411217969767279</v>
+        <v>-0.1138447081462364</v>
       </c>
       <c r="C93">
-        <v>-0.3025354348744007</v>
+        <v>0.3220269468005373</v>
       </c>
       <c r="D93">
-        <v>-0.01424866188000613</v>
+        <v>0.007005163631350075</v>
       </c>
       <c r="E93">
-        <v>0.0244302730646194</v>
+        <v>-0.04723154848211177</v>
       </c>
       <c r="F93">
-        <v>-0.03973410023501339</v>
+        <v>-0.02449673153071948</v>
       </c>
       <c r="G93">
-        <v>0.01772457907278872</v>
+        <v>0.03800954203208499</v>
       </c>
       <c r="H93">
-        <v>-0.005456127643906209</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.007840012110280601</v>
+      </c>
+      <c r="I93">
+        <v>-0.0006810126090149533</v>
+      </c>
+      <c r="J93">
+        <v>-0.03903679564411843</v>
+      </c>
+      <c r="K93">
+        <v>0.02030763787554716</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.09377306577555525</v>
+        <v>-0.1333891883085088</v>
       </c>
       <c r="C94">
-        <v>0.04280884934595749</v>
+        <v>-0.04909365513453808</v>
       </c>
       <c r="D94">
-        <v>0.0190170915902288</v>
+        <v>-0.04077798467624416</v>
       </c>
       <c r="E94">
-        <v>-0.008937450632063327</v>
+        <v>0.01140925150841931</v>
       </c>
       <c r="F94">
-        <v>0.1305558108141961</v>
+        <v>-0.01747013668717906</v>
       </c>
       <c r="G94">
-        <v>0.05737835565992006</v>
+        <v>0.02208200214416687</v>
       </c>
       <c r="H94">
-        <v>-0.04063941950479519</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.0004229397709991776</v>
+      </c>
+      <c r="I94">
+        <v>-0.107464981293467</v>
+      </c>
+      <c r="J94">
+        <v>0.1456774254426311</v>
+      </c>
+      <c r="K94">
+        <v>-0.008555347707732211</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.12803348425304</v>
+        <v>-0.1187544937766785</v>
       </c>
       <c r="C95">
-        <v>0.08054665164686806</v>
+        <v>-0.05717946722994965</v>
       </c>
       <c r="D95">
-        <v>-0.09175975149716946</v>
+        <v>-0.01148217575293048</v>
       </c>
       <c r="E95">
-        <v>0.06755277771973467</v>
+        <v>0.03226236052609643</v>
       </c>
       <c r="F95">
-        <v>-0.08733809203309092</v>
+        <v>-0.05923734893228026</v>
       </c>
       <c r="G95">
-        <v>-0.1168992644813288</v>
+        <v>0.005183671447442263</v>
       </c>
       <c r="H95">
-        <v>-0.07512773469789574</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.06332761050670138</v>
+      </c>
+      <c r="I95">
+        <v>0.09849501249323006</v>
+      </c>
+      <c r="J95">
+        <v>-0.07664003255727082</v>
+      </c>
+      <c r="K95">
+        <v>0.0559538211540974</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.01055247125182009</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.001540570124527407</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.0004508273006136389</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.008778024290139163</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>9.332281499615234e-05</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>-0.005923232536619186</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.02611553856788598</v>
+      </c>
+      <c r="I96">
+        <v>0.0009368734618829064</v>
+      </c>
+      <c r="J96">
+        <v>-0.01509323548904191</v>
+      </c>
+      <c r="K96">
+        <v>-0.02449955693061354</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.1714950862606679</v>
+        <v>-0.1772976913637869</v>
       </c>
       <c r="C97">
-        <v>-0.05534455907370273</v>
+        <v>-0.002938623697078093</v>
       </c>
       <c r="D97">
-        <v>0.9064431302385977</v>
+        <v>-0.139017279076829</v>
       </c>
       <c r="E97">
-        <v>0.08126335833097163</v>
+        <v>0.154877728705044</v>
       </c>
       <c r="F97">
-        <v>-0.07217373756484488</v>
+        <v>0.9193059072169527</v>
       </c>
       <c r="G97">
-        <v>-0.1244930070516577</v>
+        <v>0.06049919454312142</v>
       </c>
       <c r="H97">
-        <v>0.02085530552887879</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.02247633577218308</v>
+      </c>
+      <c r="I97">
+        <v>-0.1226639701389922</v>
+      </c>
+      <c r="J97">
+        <v>-0.06727440719353471</v>
+      </c>
+      <c r="K97">
+        <v>0.04904916596186664</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.3248337149722406</v>
+        <v>-0.2654833657624724</v>
       </c>
       <c r="C98">
-        <v>0.05702763234617204</v>
+        <v>-0.03063017164088324</v>
       </c>
       <c r="D98">
-        <v>-0.03365626741116106</v>
+        <v>0.048808344295088</v>
       </c>
       <c r="E98">
-        <v>-0.2491566171032952</v>
+        <v>0.01457196849890108</v>
       </c>
       <c r="F98">
-        <v>-0.1406498635873302</v>
+        <v>-0.03319843807172256</v>
       </c>
       <c r="G98">
-        <v>0.3141085357688286</v>
+        <v>-0.2533693887612739</v>
       </c>
       <c r="H98">
-        <v>0.2449615713956808</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.4267662707453403</v>
+      </c>
+      <c r="I98">
+        <v>0.05527346675173347</v>
+      </c>
+      <c r="J98">
+        <v>0.01212998515677403</v>
+      </c>
+      <c r="K98">
+        <v>-0.1503942937057449</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0.08769429447862274</v>
+        <v>-0.05706521676516013</v>
       </c>
       <c r="C99">
-        <v>0.02288081509444369</v>
+        <v>-0.008329049715818538</v>
       </c>
       <c r="D99">
-        <v>-0.01293748700013519</v>
+        <v>-0.03268734445944004</v>
       </c>
       <c r="E99">
-        <v>-0.005723539736091876</v>
+        <v>0.01726041531969792</v>
       </c>
       <c r="F99">
-        <v>-0.01163088546897506</v>
+        <v>-0.02359226667686005</v>
       </c>
       <c r="G99">
-        <v>-0.02740841223155412</v>
+        <v>-0.003967763187652293</v>
       </c>
       <c r="H99">
-        <v>0.05923174510708119</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.02594575253646647</v>
+      </c>
+      <c r="I99">
+        <v>-0.02112932668393094</v>
+      </c>
+      <c r="J99">
+        <v>0.0225060954590623</v>
+      </c>
+      <c r="K99">
+        <v>-0.006314957955624661</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.02480052515139012</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.06955509593247963</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.1449683331247442</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.08507470206881487</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.06188716049387002</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.2057360033388606</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>-0.5468448415262801</v>
+      </c>
+      <c r="I100">
+        <v>0.5267319473152177</v>
+      </c>
+      <c r="J100">
+        <v>-0.05546268892634116</v>
+      </c>
+      <c r="K100">
+        <v>0.1877659272161899</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.05916722827999595</v>
+        <v>-0.03760303096052999</v>
       </c>
       <c r="C101">
-        <v>0.002964325082109576</v>
+        <v>-0.006917359137726976</v>
       </c>
       <c r="D101">
-        <v>-0.03526307113580472</v>
+        <v>-0.002400805191936754</v>
       </c>
       <c r="E101">
-        <v>0.03931073015377841</v>
+        <v>-0.01551698672141972</v>
       </c>
       <c r="F101">
-        <v>0.030395074667864</v>
+        <v>-0.0264547082006388</v>
       </c>
       <c r="G101">
-        <v>-0.04040665745867923</v>
+        <v>0.07743962335244182</v>
       </c>
       <c r="H101">
-        <v>-0.08597173289158203</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.05194466357600755</v>
+      </c>
+      <c r="I101">
+        <v>0.01625448497411956</v>
+      </c>
+      <c r="J101">
+        <v>0.06075531081468292</v>
+      </c>
+      <c r="K101">
+        <v>-0.0775142669881437</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4273,19 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4308,19 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4341,15 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
